--- a/data/trans_camb/P1801_2016_2023-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1801_2016_2023-Habitat-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>1.39504094988645</v>
+        <v>1.395040949886461</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>-5.240516617295476</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-1.835230268111521</v>
+        <v>-1.83523026811151</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.628046550137022</v>
+        <v>-4.293412932918224</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.904925292936218</v>
+        <v>-10.08743823244884</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.704231404109392</v>
+        <v>-5.739470683567547</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.0709747403165</v>
+        <v>6.878439358535933</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05734011721980369</v>
+        <v>-0.1531399509171603</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.911110676359654</v>
+        <v>1.427847480986206</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>0.0283173767700206</v>
+        <v>0.02831737677002083</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>-0.08555011843019543</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.03321571980519734</v>
+        <v>-0.03321571980519714</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.09024416871266416</v>
+        <v>-0.08126440137278976</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1569640310098093</v>
+        <v>-0.1560881553949316</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1002277200274963</v>
+        <v>-0.09989017956654507</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1507700283262464</v>
+        <v>0.1482766509580759</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.0009949238627001741</v>
+        <v>0.0001625338675307513</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.03591758238400791</v>
+        <v>0.02659746428191394</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>1.891969158324569</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.015599527252166</v>
+        <v>3.015599527252155</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.01409895381503281</v>
+        <v>-0.4204235735089691</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.465760371554882</v>
+        <v>-2.201737693359332</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1037001684898847</v>
+        <v>-0.1776874338879313</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.966754886019499</v>
+        <v>9.014342807365768</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.749773308866166</v>
+        <v>6.117419397420997</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.384149332556671</v>
+        <v>6.438148076917677</v>
       </c>
     </row>
     <row r="13">
@@ -727,7 +727,7 @@
         <v>0.03361507697161507</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.0597912151433601</v>
+        <v>0.05979121514335987</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6.472176844142386e-06</v>
+        <v>-0.008402967649660743</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.04255232206532442</v>
+        <v>-0.03812875328703016</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.001916463666263805</v>
+        <v>-0.003613871120737611</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2130963291887901</v>
+        <v>0.2164149046445512</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.106825248350505</v>
+        <v>0.1124023628117438</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1307213036137596</v>
+        <v>0.1324938782508269</v>
       </c>
     </row>
     <row r="16">
@@ -779,7 +779,7 @@
         <v>-6.128479724902175</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-10.70215970319073</v>
+        <v>-10.70215970319072</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-8.505805833772461</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.76298830813213</v>
+        <v>-10.81123832220976</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-15.62570380388014</v>
+        <v>-15.27440273957062</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-12.05021677516193</v>
+        <v>-11.93263461898274</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.9672239008450123</v>
+        <v>-0.1952822539001596</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-5.922792786139869</v>
+        <v>-5.967518687161434</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-4.281301101889458</v>
+        <v>-4.416309401392383</v>
       </c>
     </row>
     <row r="19">
@@ -830,7 +830,7 @@
         <v>-0.132236117039945</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.1790486501832591</v>
+        <v>-0.1790486501832589</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.1599758060015475</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2392916743226776</v>
+        <v>-0.2227148329992225</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2487776015878204</v>
+        <v>-0.2483259613598972</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.222314998644388</v>
+        <v>-0.2186961333053362</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.02136117641286345</v>
+        <v>-0.004947983730916218</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.102253172936536</v>
+        <v>-0.1045209488449827</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.08570157481654898</v>
+        <v>-0.08896950913648677</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.727698528805753</v>
+        <v>0.3198889775096069</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.043697416752734</v>
+        <v>1.22944261192811</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.733895578874449</v>
+        <v>2.059872443706099</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.152871905815598</v>
+        <v>9.467186329121221</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.378777376876691</v>
+        <v>9.508193635627842</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.930437054834555</v>
+        <v>7.836097934337692</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.01477804515972052</v>
+        <v>0.006722094620090472</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.0181314070679288</v>
+        <v>0.02173986431958298</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.03376823218970575</v>
+        <v>0.03850323514342583</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2043025885577709</v>
+        <v>0.2163771023010912</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1839674731418712</v>
+        <v>0.1850784438975911</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1649793517265746</v>
+        <v>0.1596547131963505</v>
       </c>
     </row>
     <row r="28">
@@ -994,7 +994,7 @@
         <v>-1.203517398724518</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.1016593423970424</v>
+        <v>0.1016593423970535</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.151022346531676</v>
+        <v>-0.9220208681521264</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.243874909538309</v>
+        <v>-3.306429203501491</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.59613398478423</v>
+        <v>-1.771477178192726</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.015364852886077</v>
+        <v>3.766670839461992</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.009616988190073</v>
+        <v>1.171999919898915</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.722183362616081</v>
+        <v>1.695901528982459</v>
       </c>
     </row>
     <row r="31">
@@ -1045,7 +1045,7 @@
         <v>-0.02106871878043899</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.001957542223529986</v>
+        <v>0.0019575422235302</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.02436817335017546</v>
+        <v>-0.01965234578439843</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.05599388465758379</v>
+        <v>-0.05661867472545432</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.03037508383971962</v>
+        <v>-0.03332447848522248</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.08806052305553388</v>
+        <v>0.08284002203641359</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.01804582170116508</v>
+        <v>0.02088023107043351</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.03379127610301773</v>
+        <v>0.03343734777958395</v>
       </c>
     </row>
     <row r="34">
